--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/10/seed1/result_data_RandomForest.xlsx
@@ -499,16 +499,16 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.650199999999996</v>
+        <v>5.719899999999995</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.04569999999999</v>
+        <v>-14.18089999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.707</v>
+        <v>13.7314</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.46410000000001</v>
+        <v>-14.1968</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.324499999999998</v>
+        <v>6.535099999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.8476</v>
+        <v>-11.90119999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.09130000000001</v>
+        <v>14.28860000000001</v>
       </c>
     </row>
     <row r="10">
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.151100000000008</v>
+        <v>9.443000000000008</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.0157</v>
+        <v>-11.9812</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>13.2427</v>
+        <v>13.1069</v>
       </c>
     </row>
     <row r="19">
